--- a/comment_counts.xlsx
+++ b/comment_counts.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>899</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>855</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>900</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>386</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>448</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>816</v>
+        <v>918</v>
       </c>
     </row>
     <row r="40">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>243</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>191</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>101</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>916</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="58">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>872</v>
+        <v>924</v>
       </c>
     </row>
     <row r="64">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
